--- a/RatingUniversity/Files/16_informaciya_o_dissertaciyah.xlsx
+++ b/RatingUniversity/Files/16_informaciya_o_dissertaciyah.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dilechka\Desktop\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
@@ -26,7 +21,7 @@
     <definedName name="kengash_shifr">informaciya_o_dissertaciyah!$G$6</definedName>
     <definedName name="work_place">informaciya_o_dissertaciyah!$C$6</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Диссертантнинг Ф.И.Ш</t>
   </si>
@@ -60,12 +55,6 @@
   </si>
   <si>
     <t>номи</t>
-  </si>
-  <si>
-    <t>..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  Жами</t>
   </si>
   <si>
     <t xml:space="preserve">Ўрганилган йилда олий таълим муассасаларининг асосий штатида ишлаётган профессор-  </t>
@@ -88,7 +77,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -223,6 +212,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -246,9 +238,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,7 +511,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -530,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I12"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,86 +539,86 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="A2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="A3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="A4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:9" ht="112.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -671,46 +660,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
